--- a/USHPRR/U3Si2_rdf_new.xlsx
+++ b/USHPRR/U3Si2_rdf_new.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A5FF2F-17A1-644B-9623-4F33DB08EA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF51F2-E128-6B44-A0B2-C42038AF9E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="2520" windowWidth="28040" windowHeight="17440" xr2:uid="{CFBE5D48-A5B6-A548-B789-00256E1586DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -15490,9 +15490,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -15530,7 +15530,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -15636,7 +15636,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15778,7 +15778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15788,8 +15788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C594CF81-DE59-E74D-A212-7CC7A7A4B8A6}">
   <dimension ref="A1:WC614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
